--- a/sites.xlsx
+++ b/sites.xlsx
@@ -26,17 +26,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -56,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -64,10 +60,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,7 +278,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="107.67"/>
+    <col customWidth="1" min="1" max="1" width="33.33"/>
     <col customWidth="1" min="2" max="26" width="8.33"/>
   </cols>
   <sheetData>
@@ -300,120 +293,340 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="2"/>
+    </row>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
     <row r="116" ht="15.75" customHeight="1"/>
